--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D17638A-DAE8-4AE3-B29E-6BDB81B7BD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8541483-E3C2-42D0-95E6-914A763319DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18225" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Start from 0 picking and adding coins. Use an "I" cut value to prevent duplicates. Cut off half the tree. Start at the left counting coins and adding to the value.</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>time_based_key_value_store</t>
   </si>
   <si>
@@ -421,6 +418,12 @@
   </si>
   <si>
     <t>Can't nest hashmaps. Need to use array to index into hashmap. The anagram array of each word will always be the same. So use that as a 'hash'</t>
+  </si>
+  <si>
+    <t>top_k_frequent_elements</t>
+  </si>
+  <si>
+    <t>Use hashmap to count numbers. Use frequency array of length K to "sort" by count.</t>
   </si>
 </sst>
 </file>
@@ -493,9 +496,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -514,21 +545,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,15 +566,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I57" totalsRowShown="0">
-  <autoFilter ref="C5:I57" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I58" totalsRowShown="0">
+  <autoFilter ref="C5:I58" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I57">
     <sortCondition ref="E5:E57"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
-    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
@@ -884,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:I57"/>
+  <dimension ref="C5:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -929,7 +946,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -949,7 +966,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -963,7 +980,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -980,7 +997,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
@@ -997,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="4">
         <v>3.5</v>
@@ -1011,7 +1028,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="4">
         <v>3.5</v>
@@ -1031,7 +1048,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
@@ -1051,7 +1068,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="4">
         <v>4</v>
@@ -1065,16 +1082,16 @@
     </row>
     <row r="14" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
         <v>87</v>
@@ -1085,7 +1102,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="4">
         <v>4.5</v>
@@ -1102,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
@@ -1116,7 +1133,7 @@
         <v>91</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
@@ -1133,7 +1150,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
@@ -1147,7 +1164,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
@@ -1161,7 +1178,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="4">
         <v>6</v>
@@ -1178,7 +1195,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="4">
         <v>6</v>
@@ -1195,7 +1212,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="4">
         <v>6.5</v>
@@ -1218,7 +1235,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="4">
         <v>6.5</v>
@@ -1235,7 +1252,7 @@
         <v>97</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="4">
         <v>6.5</v>
@@ -1252,7 +1269,7 @@
         <v>76</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
@@ -1269,7 +1286,7 @@
         <v>81</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
@@ -1286,7 +1303,7 @@
         <v>104</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
@@ -1300,16 +1317,16 @@
     </row>
     <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
         <v>93</v>
@@ -1320,7 +1337,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="4">
         <v>8</v>
@@ -1334,7 +1351,7 @@
         <v>83</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="4">
         <v>8</v>
@@ -1348,7 +1365,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
@@ -1365,16 +1382,16 @@
     </row>
     <row r="32" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="4">
         <v>8.5</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
         <v>47</v>
@@ -1385,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4">
         <v>9</v>
@@ -1399,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E34" s="4">
         <v>9</v>
@@ -1413,7 +1430,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" s="4">
         <v>9</v>
@@ -1427,7 +1444,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="4">
         <v>9</v>
@@ -1444,19 +1461,19 @@
     </row>
     <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E37" s="4">
         <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
         <v>111</v>
-      </c>
-      <c r="G37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1464,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4">
         <v>9.5</v>
@@ -1478,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="4">
         <v>9.5</v>
@@ -1492,7 +1509,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="4">
         <v>9.5</v>
@@ -1506,7 +1523,7 @@
         <v>102</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="4">
         <v>9.5</v>
@@ -1523,7 +1540,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="4">
         <v>9.6999999999999993</v>
@@ -1537,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4">
         <v>9.8000000000000007</v>
@@ -1551,7 +1568,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="4">
         <v>9.8000000000000007</v>
@@ -1565,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="4">
         <v>9.8000000000000007</v>
@@ -1579,7 +1596,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4">
         <v>9.8000000000000007</v>
@@ -1593,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="4">
         <v>10</v>
@@ -1607,7 +1624,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="4">
         <v>10</v>
@@ -1621,7 +1638,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" s="4">
         <v>10</v>
@@ -1635,7 +1652,7 @@
         <v>24</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" s="4">
         <v>10</v>
@@ -1652,7 +1669,7 @@
         <v>28</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E51" s="4">
         <v>10</v>
@@ -1666,7 +1683,7 @@
         <v>29</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="4">
         <v>10</v>
@@ -1683,7 +1700,7 @@
         <v>45</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="4">
         <v>10</v>
@@ -1697,7 +1714,7 @@
         <v>85</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" s="4">
         <v>10</v>
@@ -1711,16 +1728,16 @@
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E55" s="4">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
         <v>78</v>
@@ -1728,33 +1745,58 @@
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" t="s">
         <v>117</v>
-      </c>
-      <c r="G56" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="4">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:E57">
+  <conditionalFormatting sqref="D6:D58">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E58">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1764,14 +1806,6 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D57">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1790,17 +1824,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B1" sqref="B1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
+  <cols>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8541483-E3C2-42D0-95E6-914A763319DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014C3F06-B6DD-40F7-B3C6-9929DE867762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18225" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Use hashmap to count numbers. Use frequency array of length K to "sort" by count.</t>
+  </si>
+  <si>
+    <t>encode_and_decode_strings</t>
+  </si>
+  <si>
+    <t>Save count at start of string. So 4#abcd1#a</t>
   </si>
 </sst>
 </file>
@@ -566,8 +572,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I58" totalsRowShown="0">
-  <autoFilter ref="C5:I58" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I59" totalsRowShown="0">
+  <autoFilter ref="C5:I59" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I57">
     <sortCondition ref="E5:E57"/>
   </sortState>
@@ -901,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:I58"/>
+  <dimension ref="C5:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,8 +1793,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D58">
+  <conditionalFormatting sqref="D6:D59">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
@@ -1796,7 +1817,7 @@
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E58">
+  <conditionalFormatting sqref="E6:E59">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014C3F06-B6DD-40F7-B3C6-9929DE867762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C060171-33A7-46A4-B6E6-8E51AD61656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -252,9 +252,6 @@
     <t>reverse_polish_notation</t>
   </si>
   <si>
-    <t>Just use stack. Push numbers and pop operators</t>
-  </si>
-  <si>
     <t>course_schedule</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>product_array_except_self</t>
   </si>
   <si>
-    <t>Array for multiplying everything to the left, and then everything to the right. Then mult the two together.</t>
-  </si>
-  <si>
     <t>validate_binary_tree</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>didn't solve</t>
   </si>
   <si>
-    <t>On each insert store the current minimum, then update the minimum using the inserted value.</t>
-  </si>
-  <si>
     <t>O(1)</t>
   </si>
   <si>
@@ -430,6 +421,36 @@
   </si>
   <si>
     <t>Save count at start of string. So 4#abcd1#a</t>
+  </si>
+  <si>
+    <t>Build two arrays. One for multiplying everything to the left, and one for everything to the right. Then mult the two together. Takes 3 linear passes.</t>
+  </si>
+  <si>
+    <t>valid_sudoku</t>
+  </si>
+  <si>
+    <t>Use HashSets. Divide indices by 3 with integer divison to get grouping. Iterate through ever grid.</t>
+  </si>
+  <si>
+    <t>longest_consecutive_sequence</t>
+  </si>
+  <si>
+    <t>Use HashSet. Iterate through every num to find the start of the sequence, a number with no left, then count moving right</t>
+  </si>
+  <si>
+    <t>Use touple to store current min at each stack insert.</t>
+  </si>
+  <si>
+    <t>Just use stack. Push numbers and pop operators, resolve operator then push the solution.</t>
+  </si>
+  <si>
+    <t>generate_parentheses</t>
+  </si>
+  <si>
+    <t>O(2^2N) or Catalan number</t>
+  </si>
+  <si>
+    <t>Use recursion to check all options. Keep count of open and closed parentheses.</t>
   </si>
 </sst>
 </file>
@@ -572,10 +593,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I59" totalsRowShown="0">
-  <autoFilter ref="C5:I59" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I57">
-    <sortCondition ref="E5:E57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I62" totalsRowShown="0">
+  <autoFilter ref="C5:I62" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I61">
+    <sortCondition ref="E5:E61"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -907,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:I59"/>
+  <dimension ref="C5:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +940,7 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="149.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="54.42578125" customWidth="1"/>
   </cols>
@@ -929,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -952,7 +973,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -972,7 +993,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -986,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -1003,7 +1024,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
@@ -1020,7 +1041,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" s="4">
         <v>3.5</v>
@@ -1031,22 +1052,22 @@
     </row>
     <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="4">
         <v>3.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
         <v>87</v>
-      </c>
-      <c r="I11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1054,7 +1075,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
@@ -1071,53 +1092,53 @@
     </row>
     <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E13" s="4">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E15" s="4">
         <v>4.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1125,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
@@ -1136,19 +1157,19 @@
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1156,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
@@ -1170,7 +1191,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
@@ -1184,7 +1205,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E20" s="4">
         <v>6</v>
@@ -1201,7 +1222,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E21" s="4">
         <v>6</v>
@@ -1218,7 +1239,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E22" s="4">
         <v>6.5</v>
@@ -1238,16 +1259,16 @@
     </row>
     <row r="23" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E23" s="4">
         <v>6.5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
         <v>47</v>
@@ -1255,50 +1276,50 @@
     </row>
     <row r="24" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="4">
         <v>6.5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
         <v>77</v>
-      </c>
-      <c r="G25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -1306,16 +1327,16 @@
     </row>
     <row r="27" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
         <v>47</v>
@@ -1323,19 +1344,19 @@
     </row>
     <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1343,7 +1364,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" s="4">
         <v>8</v>
@@ -1354,50 +1375,50 @@
     </row>
     <row r="30" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4">
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="4">
+        <v>8</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E32" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="G32" t="s">
         <v>47</v>
@@ -1405,411 +1426,468 @@
     </row>
     <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>44</v>
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E36" s="4">
         <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E37" s="4">
         <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E38" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E39" s="4">
         <v>9.5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>108</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4">
         <v>9.5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E42" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E43" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>34</v>
+        <v>101</v>
+      </c>
+      <c r="G44" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E46" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E47" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E48" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E49" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E50" s="4">
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E51" s="4">
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E52" s="4">
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E53" s="4">
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E54" s="4">
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E55" s="4">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="4" t="s">
-        <v>115</v>
+        <v>45</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="4">
+        <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G56" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="4" t="s">
-        <v>115</v>
+        <v>83</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="4">
+        <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>119</v>
+        <v>50</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E58" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="E59" s="4">
+        <v>10</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D59">
+  <conditionalFormatting sqref="D6:D62">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
@@ -1817,7 +1895,7 @@
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E59">
+  <conditionalFormatting sqref="E6:E62">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C060171-33A7-46A4-B6E6-8E51AD61656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A27DA1-E89F-469B-8C06-461C1B785708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
   <dimension ref="C5:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A27DA1-E89F-469B-8C06-461C1B785708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6604039-B73E-4AB8-A587-53B368199F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -282,12 +282,6 @@
     <t>Just use recursion</t>
   </si>
   <si>
-    <t>diffuse_the_bomb</t>
-  </si>
-  <si>
-    <t>sliding window. Set answer to left side of window or right side of window.</t>
-  </si>
-  <si>
     <t>number_of_islands</t>
   </si>
   <si>
@@ -451,6 +445,18 @@
   </si>
   <si>
     <t>Use recursion to check all options. Keep count of open and closed parentheses.</t>
+  </si>
+  <si>
+    <t>daily_temperatures</t>
+  </si>
+  <si>
+    <t>Keep stack of temperatures in indices. For each temperature keep poping stack and checking temperaturs until invalid then add onto stack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sliding window. Set answer to left side of window or right side of window. Use rem_euclid to calculate the circular </t>
+  </si>
+  <si>
+    <t>defuse_the_bomb</t>
   </si>
 </sst>
 </file>
@@ -523,21 +529,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -593,16 +585,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I62" totalsRowShown="0">
-  <autoFilter ref="C5:I62" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I61">
-    <sortCondition ref="E5:E61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I63" totalsRowShown="0">
+  <autoFilter ref="C5:I63" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I63">
+    <sortCondition ref="E5:E63"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
-    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
     <tableColumn id="6" xr3:uid="{DF1F1C43-26DE-4E7F-B0B3-68E3ADBBD8E8}" name="Resources"/>
@@ -928,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:I62"/>
+  <dimension ref="C5:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -973,7 +965,7 @@
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -993,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -1007,7 +999,7 @@
         <v>51</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
@@ -1024,7 +1016,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
@@ -1041,7 +1033,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10" s="4">
         <v>3.5</v>
@@ -1052,22 +1044,22 @@
     </row>
     <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="4">
         <v>3.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
         <v>85</v>
-      </c>
-      <c r="I11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1075,7 +1067,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
@@ -1092,36 +1084,36 @@
     </row>
     <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1129,13 +1121,13 @@
         <v>71</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E15" s="4">
         <v>4.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
         <v>72</v>
@@ -1146,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
@@ -1157,19 +1149,19 @@
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1177,7 +1169,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
@@ -1191,7 +1183,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
@@ -1205,7 +1197,7 @@
         <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" s="4">
         <v>6</v>
@@ -1222,7 +1214,7 @@
         <v>62</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="4">
         <v>6</v>
@@ -1239,7 +1231,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="4">
         <v>6.5</v>
@@ -1262,13 +1254,13 @@
         <v>78</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" s="4">
         <v>6.5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
         <v>47</v>
@@ -1276,19 +1268,19 @@
     </row>
     <row r="24" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E24" s="4">
         <v>6.5</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1296,7 +1288,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
@@ -1313,7 +1305,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
@@ -1327,16 +1319,16 @@
     </row>
     <row r="27" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
         <v>47</v>
@@ -1344,233 +1336,233 @@
     </row>
     <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="4">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>40</v>
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="4">
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>83</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" s="4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" s="4">
         <v>8.5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E36" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>98</v>
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E37" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
+        <v>137</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E38" s="4">
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E39" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4">
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E41" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>120</v>
@@ -1579,260 +1571,260 @@
         <v>9.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>13</v>
+        <v>132</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E43" s="4">
         <v>9.5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E44" s="4">
         <v>9.5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E46" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E47" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E49" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E50" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E51" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E52" s="4">
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E53" s="4">
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E54" s="4">
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="4">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E56" s="4">
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E57" s="4">
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E58" s="4">
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E59" s="4">
         <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s">
         <v>47</v>
@@ -1840,30 +1832,33 @@
     </row>
     <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="E60" s="4">
+        <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="E61" s="4">
+        <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
         <v>47</v>
@@ -1871,31 +1866,45 @@
     </row>
     <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="4">
-        <v>7.5</v>
+        <v>120</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G62" t="s">
-        <v>136</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D62">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="D6:D63">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E62">
+  <conditionalFormatting sqref="E6:E63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6604039-B73E-4AB8-A587-53B368199F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A9A3B-D83B-433C-8225-8F3D597313AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>balanced_binary_tree</t>
   </si>
   <si>
-    <t>Send signal down each side, counting depth, check depth on the way up, if anything doesn't match definition of balanced then false.</t>
-  </si>
-  <si>
     <t>linked_list_cycle</t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>https://www.youtube.com/watch?v=IIxoo93bmPQ</t>
   </si>
   <si>
-    <t>Sort list . Three pointers. Iterate through list. Left and right pointers to calculate sum. Move left and right to new values depending on sum.</t>
-  </si>
-  <si>
     <t>binary_tree_level_order_traversal</t>
   </si>
   <si>
@@ -457,6 +451,33 @@
   </si>
   <si>
     <t>defuse_the_bomb</t>
+  </si>
+  <si>
+    <t>Use enum Balanced Yes{max_depth}, No. DFS down checking the depth and returning Y/N.</t>
+  </si>
+  <si>
+    <t>same_tree</t>
+  </si>
+  <si>
+    <t>DFS down both sides checking == for each tree.</t>
+  </si>
+  <si>
+    <t>two_sum_two_input_array_sorted</t>
+  </si>
+  <si>
+    <t>Use two pointers. One at the beginning and one at the end.</t>
+  </si>
+  <si>
+    <t>Sort list . Three pointers. One pointer incrementing. Then run two_sum between that pointer and end.</t>
+  </si>
+  <si>
+    <t>car_fleet</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <t>Sort by distance from target. Start at nearest and check if it needs to be combined.</t>
   </si>
 </sst>
 </file>
@@ -529,7 +550,21 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -585,16 +620,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I63" totalsRowShown="0">
-  <autoFilter ref="C5:I63" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I63">
-    <sortCondition ref="E5:E63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I66" totalsRowShown="0">
+  <autoFilter ref="C5:I66" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I66">
+    <sortCondition ref="E5:E66"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
-    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
     <tableColumn id="6" xr3:uid="{DF1F1C43-26DE-4E7F-B0B3-68E3ADBBD8E8}" name="Resources"/>
@@ -920,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C5:I63"/>
+  <dimension ref="C3:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,12 +972,18 @@
     <col min="9" max="9" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <f>AVERAGE(Table1[Confidence])</f>
+        <v>7.6101694915254248</v>
+      </c>
+    </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -951,186 +992,186 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="4">
         <v>3.5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="4">
         <v>3.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
         <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="4">
         <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E13" s="4">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15" s="4">
         <v>4.5</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1138,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
@@ -1149,24 +1190,24 @@
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>118</v>
@@ -1175,12 +1216,15 @@
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>118</v>
@@ -1189,137 +1233,137 @@
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E23" s="4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" s="4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>118</v>
@@ -1328,261 +1372,258 @@
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E28" s="4">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4">
         <v>7.5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E30" s="4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>40</v>
+        <v>146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E31" s="4">
         <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E35" s="4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="4">
         <v>8.5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E37" s="4">
         <v>8.5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E38" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>96</v>
+        <v>135</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E39" s="4">
         <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40" s="4">
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E41" s="4">
         <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E42" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>118</v>
@@ -1591,320 +1632,374 @@
         <v>9.5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="4">
         <v>9.5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="4">
         <v>9.5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E46" s="4">
         <v>9.5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E47" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>32</v>
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E48" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E49" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E50" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E51" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E52" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E53" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>15</v>
+        <v>142</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" s="4">
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E55" s="4">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" s="4">
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="4">
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E58" s="4">
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E59" s="4">
         <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E60" s="4">
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E61" s="4">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="E62" s="4">
+        <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="4">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="4">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>111</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" t="s">
-        <v>47</v>
+      <c r="D65" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D63">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="D6:D66">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E63">
+  <conditionalFormatting sqref="E6:E66">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A9A3B-D83B-433C-8225-8F3D597313AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A5937-B479-4DDB-82E6-959E325B5E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>Sort by distance from target. Start at nearest and check if it needs to be combined.</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>largest_rectangle_in_histogram</t>
+  </si>
+  <si>
+    <t>Keep stack of possible rects of height and start. Iterate through the rectangles, when inserting pop rects if they're taller and move the start of the new rect back. Calculate the max when popping and calculate the max at the end clearing out the remaining stack.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -605,6 +656,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6969"/>
       <color rgb="FFAAC1E0"/>
     </mruColors>
   </colors>
@@ -620,16 +672,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I66" totalsRowShown="0">
-  <autoFilter ref="C5:I66" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I66">
-    <sortCondition ref="E5:E66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I67" totalsRowShown="0">
+  <autoFilter ref="C5:I67" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I67">
+    <sortCondition ref="E5:E67"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
-    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="10"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
     <tableColumn id="6" xr3:uid="{DF1F1C43-26DE-4E7F-B0B3-68E3ADBBD8E8}" name="Resources"/>
@@ -955,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C3:I66"/>
+  <dimension ref="C3:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +1027,7 @@
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <f>AVERAGE(Table1[Confidence])</f>
-        <v>7.6101694915254248</v>
+        <v>7.5416666666666679</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
@@ -1103,29 +1155,26 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>118</v>
@@ -1134,15 +1183,18 @@
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>118</v>
@@ -1151,80 +1203,80 @@
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E16" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17" s="4">
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>118</v>
@@ -1233,24 +1285,24 @@
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E20" s="4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -1258,7 +1310,7 @@
     </row>
     <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>118</v>
@@ -1267,69 +1319,69 @@
         <v>6.5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E22" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23" s="4">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" s="4">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>118</v>
@@ -1338,24 +1390,24 @@
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -1363,89 +1415,92 @@
     </row>
     <row r="27" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29" s="4">
         <v>7.5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E30" s="4">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" s="4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>116</v>
@@ -1454,32 +1509,26 @@
         <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E33" s="4">
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>118</v>
@@ -1488,15 +1537,18 @@
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>118</v>
@@ -1505,32 +1557,32 @@
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="4">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>106</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>108</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>118</v>
@@ -1539,15 +1591,15 @@
         <v>8.5</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>118</v>
@@ -1556,29 +1608,32 @@
         <v>8.5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>116</v>
@@ -1587,12 +1642,12 @@
         <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>116</v>
@@ -1601,63 +1656,63 @@
         <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E42" s="4">
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E43" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" s="4">
         <v>9.5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>116</v>
@@ -1666,12 +1721,12 @@
         <v>9.5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>116</v>
@@ -1680,57 +1735,57 @@
         <v>9.5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="4">
         <v>9.5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E48" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E49" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>116</v>
@@ -1739,12 +1794,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>116</v>
@@ -1753,26 +1808,26 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E52" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>118</v>
@@ -1781,29 +1836,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E54" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>4</v>
+        <v>142</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>116</v>
@@ -1812,12 +1867,12 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>116</v>
@@ -1826,12 +1881,12 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>116</v>
@@ -1840,15 +1895,12 @@
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>116</v>
@@ -1857,12 +1909,15 @@
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>116</v>
@@ -1871,15 +1926,12 @@
         <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>116</v>
@@ -1888,29 +1940,29 @@
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" s="4">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>118</v>
@@ -1919,15 +1971,15 @@
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>118</v>
@@ -1936,24 +1988,24 @@
         <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E64" s="4">
         <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -1961,21 +2013,24 @@
     </row>
     <row r="65" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="E65" s="4">
+        <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>118</v>
@@ -1984,23 +2039,40 @@
         <v>109</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D66">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="D6:D67">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E66">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="E6:E67">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="6"/>
@@ -2012,7 +2084,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I22" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="I23" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A5937-B479-4DDB-82E6-959E325B5E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D826B65C-9F01-40E9-86EA-707E0BE69571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -487,6 +487,12 @@
   </si>
   <si>
     <t>Keep stack of possible rects of height and start. Iterate through the rectangles, when inserting pop rects if they're taller and move the start of the new rect back. Calculate the max when popping and calculate the max at the end clearing out the remaining stack.</t>
+  </si>
+  <si>
+    <t>container_with_most_wtaer</t>
+  </si>
+  <si>
+    <t>Two pointers. One at start and one at end because we want to maximize volume. Move the smaller height.</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -672,16 +699,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I67" totalsRowShown="0">
-  <autoFilter ref="C5:I67" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I67">
-    <sortCondition ref="E5:E67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I68" totalsRowShown="0">
+  <autoFilter ref="C5:I68" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I68">
+    <sortCondition ref="E5:E68"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
-    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
     <tableColumn id="6" xr3:uid="{DF1F1C43-26DE-4E7F-B0B3-68E3ADBBD8E8}" name="Resources"/>
@@ -1007,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C3:I67"/>
+  <dimension ref="C3:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1054,7 @@
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <f>AVERAGE(Table1[Confidence])</f>
-        <v>7.5416666666666679</v>
+        <v>7.4836065573770503</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
@@ -1228,72 +1255,72 @@
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="4">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E17" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="4">
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>118</v>
@@ -1302,24 +1329,24 @@
         <v>6</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -1327,7 +1354,7 @@
     </row>
     <row r="22" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>118</v>
@@ -1336,69 +1363,69 @@
         <v>6.5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E23" s="4">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E24" s="4">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>143</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E25" s="4">
         <v>7</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>118</v>
@@ -1407,24 +1434,24 @@
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -1432,89 +1459,92 @@
     </row>
     <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="4">
         <v>7.5</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E31" s="4">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E32" s="4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>146</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>116</v>
@@ -1523,32 +1553,26 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="4">
         <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>118</v>
@@ -1557,15 +1581,18 @@
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>118</v>
@@ -1574,32 +1601,32 @@
         <v>8</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
         <v>106</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>108</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>118</v>
@@ -1608,15 +1635,15 @@
         <v>8.5</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>118</v>
@@ -1625,29 +1652,32 @@
         <v>8.5</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>116</v>
@@ -1656,12 +1686,12 @@
         <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>116</v>
@@ -1670,63 +1700,63 @@
         <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E43" s="4">
         <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>118</v>
       </c>
       <c r="E44" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E45" s="4">
         <v>9.5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>6</v>
+        <v>130</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>116</v>
@@ -1735,12 +1765,12 @@
         <v>9.5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>116</v>
@@ -1749,57 +1779,57 @@
         <v>9.5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E48" s="4">
         <v>9.5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E49" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E50" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>116</v>
@@ -1808,12 +1838,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>116</v>
@@ -1822,26 +1852,26 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>118</v>
@@ -1850,29 +1880,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E55" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>4</v>
+        <v>142</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>116</v>
@@ -1881,12 +1911,12 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>116</v>
@@ -1895,12 +1925,12 @@
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>116</v>
@@ -1909,15 +1939,12 @@
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>116</v>
@@ -1926,12 +1953,15 @@
         <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>116</v>
@@ -1940,15 +1970,12 @@
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>116</v>
@@ -1957,29 +1984,29 @@
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E62" s="4">
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>118</v>
@@ -1988,15 +2015,15 @@
         <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>118</v>
@@ -2005,24 +2032,24 @@
         <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -2030,21 +2057,24 @@
     </row>
     <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="E66" s="4">
+        <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>118</v>
@@ -2053,25 +2083,39 @@
         <v>109</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D67">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="D6:D68">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E67">
+  <conditionalFormatting sqref="E6:E68">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2084,7 +2128,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I23" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="I24" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D826B65C-9F01-40E9-86EA-707E0BE69571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F137F0-22AB-4825-8C4D-D532FF57F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
+    <workbookView xWindow="18165" yWindow="60" windowWidth="41100" windowHeight="20940" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -132,9 +132,6 @@
     <t>climbing_stairs</t>
   </si>
   <si>
-    <t>Recursion and memoization and handle base case</t>
-  </si>
-  <si>
     <t>longest_palindrome</t>
   </si>
   <si>
@@ -493,6 +490,24 @@
   </si>
   <si>
     <t>Two pointers. One at start and one at end because we want to maximize volume. Move the smaller height.</t>
+  </si>
+  <si>
+    <t>Recursion and memoization and handle base case. Bottom up DP solution is possible too for O(n)</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>Do two passes. One to enforce left check and one to enforce right check. There is also a one pass solution usin up, down and peak to count.</t>
+  </si>
+  <si>
+    <t>trapping_rain_water</t>
+  </si>
+  <si>
+    <t>Memory Complexity</t>
+  </si>
+  <si>
+    <t>Water in any cell is min(max_left, max_right) - y. Just build an array of the max left and max right. A one pass dual pointer method is possible too, always moving the smaller height, that way you know you have the min.</t>
   </si>
 </sst>
 </file>
@@ -565,14 +580,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -589,8 +597,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -631,29 +639,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF6969"/>
         </patternFill>
       </fill>
     </dxf>
@@ -699,18 +686,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:I68" totalsRowShown="0">
-  <autoFilter ref="C5:I68" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:I68">
-    <sortCondition ref="E5:E68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:J70" totalsRowShown="0">
+  <autoFilter ref="C5:J70" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:J70">
+    <sortCondition ref="E5:E70"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
-    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
+    <tableColumn id="10" xr3:uid="{8228D126-5BF2-407D-B28D-E088A22624E5}" name="Memory Complexity"/>
     <tableColumn id="6" xr3:uid="{DF1F1C43-26DE-4E7F-B0B3-68E3ADBBD8E8}" name="Resources"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1034,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C3:I68"/>
+  <dimension ref="C3:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,21 +1036,22 @@
     <col min="6" max="6" width="149.140625" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <f>AVERAGE(Table1[Confidence])</f>
-        <v>7.4836065573770503</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+        <v>7.3888888888888902</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -1071,89 +1060,92 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="4">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4">
         <v>3.5</v>
@@ -1162,960 +1154,994 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="4">
         <v>3.5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="4">
         <v>3.5</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="4">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="4">
         <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="4">
         <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
         <v>86</v>
       </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="4">
         <v>6</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="4">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="4">
         <v>6.5</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="4">
-        <v>7</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4">
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" s="4">
         <v>7</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E28" s="4">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="4">
         <v>7</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="4">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="D32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="4">
         <v>7.5</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="4">
-        <v>7.8</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E33" s="4">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" s="4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="4">
         <v>8.5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E41" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>94</v>
+        <v>128</v>
+      </c>
+      <c r="G41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="4">
         <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E44" s="4">
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E45" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E46" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E47" s="4">
         <v>9.5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>129</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="4">
         <v>9.5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E49" s="4">
         <v>9.5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E51" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E54" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E55" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>15</v>
+        <v>141</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E58" s="4">
         <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E59" s="4">
         <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E60" s="4">
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="4">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E62" s="4">
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E63" s="4">
         <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E64" s="4">
         <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E66" s="4">
         <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="E67" s="4">
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="4">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" t="s">
-        <v>46</v>
+      <c r="G70" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D68">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="D6:D70">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Hard"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>"Hard"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E68">
+  <conditionalFormatting sqref="E6:E70">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2128,7 +2154,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I24" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
+    <hyperlink ref="J26" r:id="rId1" xr:uid="{8EE94633-AAF7-4B1D-B7EE-1CF0D6E36A70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F137F0-22AB-4825-8C4D-D532FF57F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8721C-A42B-4004-80EA-466756445052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="60" windowWidth="41100" windowHeight="20940" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
+    <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Solutions" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="159">
   <si>
     <t>Name</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Water in any cell is min(max_left, max_right) - y. Just build an array of the max left and max right. A one pass dual pointer method is possible too, always moving the smaller height, that way you know you have the min.</t>
+  </si>
+  <si>
+    <t>search_in_2d_matrix</t>
+  </si>
+  <si>
+    <t>Create index method to convert 1d to 2d indexing, then run regular binary serach.</t>
   </si>
 </sst>
 </file>
@@ -580,28 +586,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -686,16 +671,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:J70" totalsRowShown="0">
-  <autoFilter ref="C5:J70" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:J70">
-    <sortCondition ref="E5:E70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:J71" totalsRowShown="0">
+  <autoFilter ref="C5:J71" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:J71">
+    <sortCondition ref="E5:E71"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
-    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{8EDC7E25-BA7A-495D-AC81-322A919075BD}" name="Difficulty" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6CBE43AC-C563-4032-A990-DE0BA9338384}" name="Confidence" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{A9886979-9BC5-46F1-A237-9E0C2B0DBA49}" name="Description" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{F687C78F-3A5A-4FFC-A018-767879695849}" name="Time Complexity"/>
     <tableColumn id="5" xr3:uid="{4851A160-0A69-4A15-A31B-7CEDC06037D3}" name="Worst Case"/>
     <tableColumn id="10" xr3:uid="{8228D126-5BF2-407D-B28D-E088A22624E5}" name="Memory Complexity"/>
@@ -1022,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C3:J70"/>
+  <dimension ref="C3:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1028,7 @@
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <f>AVERAGE(Table1[Confidence])</f>
-        <v>7.3888888888888902</v>
+        <v>7.4140625000000009</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -1762,41 +1747,44 @@
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E47" s="4">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E48" s="4">
         <v>9.5</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>6</v>
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>115</v>
@@ -1805,12 +1793,12 @@
         <v>9.5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>115</v>
@@ -1819,57 +1807,60 @@
         <v>9.5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E51" s="4">
         <v>9.5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E52" s="4">
-        <v>9.6999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E53" s="4">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>115</v>
@@ -1878,12 +1869,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>115</v>
@@ -1892,26 +1883,26 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>117</v>
@@ -1920,29 +1911,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G57" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="4">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>4</v>
+        <v>141</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>115</v>
@@ -1951,12 +1942,12 @@
         <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>115</v>
@@ -1965,12 +1956,12 @@
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>115</v>
@@ -1979,15 +1970,12 @@
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>115</v>
@@ -1996,12 +1984,15 @@
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>115</v>
@@ -2010,15 +2001,12 @@
         <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>115</v>
@@ -2027,29 +2015,29 @@
         <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>117</v>
@@ -2058,15 +2046,15 @@
         <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="G66" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>117</v>
@@ -2075,24 +2063,24 @@
         <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E68" s="4">
         <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G68" t="s">
         <v>45</v>
@@ -2100,21 +2088,24 @@
     </row>
     <row r="69" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="E69" s="4">
+        <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>117</v>
@@ -2123,25 +2114,39 @@
         <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D70">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="D6:D71">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E70">
+  <conditionalFormatting sqref="E6:E71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/LeetCodeAnswersConfidence.xlsx
+++ b/LeetCodeAnswersConfidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\RustProjects\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC8721C-A42B-4004-80EA-466756445052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB940E-EA52-4D1C-B3EE-061DC7E7C593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18165" yWindow="0" windowWidth="41070" windowHeight="21000" xr2:uid="{11A97F8B-2513-4167-B9DF-06FEC2A8D357}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>Create index method to convert 1d to 2d indexing, then run regular binary serach.</t>
+  </si>
+  <si>
+    <t>koko_eating_bananas</t>
+  </si>
+  <si>
+    <t>Just Brute force checking if number is eatable. Binary search between Max pile size and 0. The min pile size is your left pointer.</t>
+  </si>
+  <si>
+    <t>O(nlog(n))</t>
   </si>
 </sst>
 </file>
@@ -671,10 +680,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:J71" totalsRowShown="0">
-  <autoFilter ref="C5:J71" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:J71">
-    <sortCondition ref="E5:E71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}" name="Table1" displayName="Table1" ref="C5:J72" totalsRowShown="0">
+  <autoFilter ref="C5:J72" xr:uid="{59B00E1C-0850-40C9-A663-E45A32C81570}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C6:J72">
+    <sortCondition ref="E5:E72"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3E47EF83-B245-4B73-A7C3-75E681F43F13}" name="Name"/>
@@ -1007,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99034D2-4130-4274-94E8-AEA72754CE66}">
-  <dimension ref="C3:J71"/>
+  <dimension ref="C3:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1037,7 @@
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="E3" s="3">
         <f>AVERAGE(Table1[Confidence])</f>
-        <v>7.4140625000000009</v>
+        <v>7.4076923076923089</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -1504,72 +1513,75 @@
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E32" s="4">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="4">
         <v>7.5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E34" s="4">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" s="4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>38</v>
+        <v>145</v>
+      </c>
+      <c r="G35" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>115</v>
@@ -1578,32 +1590,26 @@
         <v>8</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4">
         <v>8</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>117</v>
@@ -1612,15 +1618,18 @@
         <v>8</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>117</v>
@@ -1629,32 +1638,32 @@
         <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
         <v>105</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>107</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>117</v>
@@ -1663,15 +1672,15 @@
         <v>8.5</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>117</v>
@@ -1680,29 +1689,32 @@
         <v>8.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>93</v>
+        <v>134</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>115</v>
@@ -1711,12 +1723,12 @@
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>115</v>
@@ -1725,29 +1737,26 @@
         <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46" s="4">
         <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G46" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>117</v>
@@ -1756,49 +1765,52 @@
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="4">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E49" s="4">
         <v>9.5</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>115</v>
@@ -1807,12 +1819,12 @@
         <v>9.5</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>115</v>
@@ -1821,60 +1833,60 @@
         <v>9.5</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E52" s="4">
         <v>9.5</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="54" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="D54" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="55" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>18</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>31</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>115</v>
@@ -1883,12 +1895,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>115</v>
@@ -1897,26 +1909,26 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E57" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>117</v>
@@ -1925,29 +1937,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>1</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="4">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>14</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>115</v>
@@ -1956,12 +1968,12 @@
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>115</v>
@@ -1970,12 +1982,12 @@
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>115</v>
@@ -1984,15 +1996,12 @@
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>115</v>
@@ -2001,12 +2010,15 @@
         <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>115</v>
@@ -2015,15 +2027,12 @@
         <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>115</v>
@@ -2032,29 +2041,29 @@
         <v>10</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E66" s="4">
         <v>10</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>117</v>
@@ -2063,15 +2072,15 @@
         <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="G67" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>117</v>
@@ -2080,24 +2089,24 @@
         <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="4">
         <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -2105,21 +2114,24 @@
     </row>
     <row r="70" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>111</v>
+        <v>139</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>117</v>
@@ -2128,14 +2140,28 @@
         <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D6:D71">
+  <conditionalFormatting sqref="D6:D72">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Hard"</formula>
     </cfRule>
@@ -2146,7 +2172,7 @@
       <formula>NOT(ISERROR(SEARCH("Easy",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E71">
+  <conditionalFormatting sqref="E6:E72">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2174,7 +2200,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E8"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
